--- a/Enose/data_file/test/pca2.xlsx
+++ b/Enose/data_file/test/pca2.xlsx
@@ -1,67 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\Python\PyCharm_study\E_Nose\Enose\data_file\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135355FD-6E7F-48F2-A68C-AA4D6304675E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -403,59 +420,2295 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-0.72536544569446815</v>
-      </c>
-      <c r="C2">
-        <v>0.38893821554615621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.69721695100399628</v>
-      </c>
-      <c r="C3">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.7253654456944681</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3889382155461562</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.9288194660734194</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2742355789228981</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.8841244774218889</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2103073799439229</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.9456690286372939</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1441011275826907</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.9119942416295185</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.01606984541259473</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.9075750493150142</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.181963304008175</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.8549815179521784</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.1725542141314085</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.8912449344819452</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2102176694877018</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.8912449344819452</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.2102176694877018</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.8912449344819452</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2102176694877018</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.288029145237785</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.5166117566120078</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.249380666835727</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.6384302596893304</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.226768727394298</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.5839692964384221</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.16619982153852</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.575642927302279</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.221591453525182</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.6333731212606135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.320332376780715</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.6813452328770653</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.231634152278723</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.9132926660754757</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.264773652698123</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.8222369490558314</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.227408186661125</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.134247152893447</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.228859108111084</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.138145920816241</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.228859108111084</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.138145920816241</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.228859108111084</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.138145920816241</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.206159250015312</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.266925243870878</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.239279366373889</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.250914789628206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.239279366373889</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.250914789628206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.288074515731572</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.276735375733961</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.239279366373889</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.250914789628206</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.444683016316669</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.326705700231569</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.441654795068499</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.495127269143195</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.3079731629984509</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.06686993446137764</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.5325879865380528</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.004686399894216934</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5953303154598253</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.01306219066135142</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5695585215444505</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.008540453225220592</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.7813480885787825</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.07587754720400554</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.718364355814648</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.1719424655114107</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.7029542442760788</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.01651212550745684</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.6455973808187754</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.03071548324015849</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.6356057657201404</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.04682365662336454</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.5986352307137426</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.03359680350392696</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.6356057657201404</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.04682365662336454</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.5986352307137426</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.03359680350392696</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7.678865725111017</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.8080742869165397</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.682567915825173</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.04394233635959607</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.9722741866133906</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.1902301567060377</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.9722741866133906</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.1902301567060377</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.8225549423867031</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.119319154795091</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.8473953327544723</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.1141607506021495</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.860272017241155</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01217948991130405</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.6982194312061041</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.08555916750057636</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.8346761926918875</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.09843903585068543</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.9428146026359487</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.2906448474349513</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.9911078264254503</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.1216309157005881</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.9292969010512835</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.1135624667740921</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.9870883778869233</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.1729908854747798</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.8852883769750317</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0.0978023690938747</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>13.50386511862772</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-2.288330017972347</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.8125287432924666</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.1072382877567747</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>严重漏液</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.8383005372078414</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.1117600251929055</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.6972169510039963</v>
+      </c>
+      <c r="C60" t="n">
         <v>1.838058258186712</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>-1.3773825899153751</v>
-      </c>
-      <c r="C4">
-        <v>-0.51988097812204992</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.6248049228769879</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.509785926024832</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.4988226877983796</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.644618599168709</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.4359926295546872</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.781647854314085</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.411152239186918</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.786806258507027</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.415082056140132</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.637406454335852</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.2547899107226392</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.559122446716445</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1143869249245621</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.628700015462647</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1729004480704472</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.643910842364646</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1423174028125753</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.368344834274078</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.5154804052556687</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.4386453537285476</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.4435255406200366</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.3037481478996709</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.481526384251499</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.3369515883166455</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.5742915711383012</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.1104629305313132</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.4538872229968423</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.4546567504674939</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.380740805145211</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.8552339635824117</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.3344843855668688</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.880060425801433</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.3080645672950674</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.061087053597158</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.3313624944076454</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.8375410587450972</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.351418053633204</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.009322532377799</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.309293057401953</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.152287024241269</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>14.45123597381393</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.103631572907475</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.2228886801797315</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.162480908662003</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.2686104485576818</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.024057021001982</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.2148670555234475</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.9277763038667836</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.2702586875101093</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8700461099084489</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.2561634911053502</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9892291134144885</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.2463198928473848</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.8458659409750566</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.307230489889522</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.008649558730901</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.176367271672214</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5.098753044079642</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9224400687632904</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4.703803624051922</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.7415804085528149</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.655289254162668</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7514240068107804</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.511926081723236</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.7778438250825818</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.692952709518962</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6904788489083804</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.672419575343884</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6194521173836794</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4.468747094480782</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>7.524370193848343</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.341286114258032</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.2873052476703284</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.034063576422565</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.1833318236924428</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.949452838622235</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>14.82690946899773</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-3.405663551492674</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.1533217127465427</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.949070117612725</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.1422013879744507</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.557717587728973</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.02603674631725024</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.482949428820332</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.002517923944257359</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3.318117822968891</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3.09220907378489</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.891476143286394</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.002517923944257359</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3.318117822968891</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>14.82690946899773</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-3.405663551492674</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5.312645334702334</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.30745328731163</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.3221029671670877</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3.390552262901848</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.2699761839829157</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3.389944383887404</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>6.821399863499447</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.09249606481877266</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.1889971249002662</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3.360957433087749</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3.96999375999862</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3.211850631655121</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>9.471387742373958</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.288129528036258</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>7.466473488178923</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-2.711252009070585</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>14.82690946899773</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-3.405663551492674</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2.089604322260106</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.778983966914177</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>电池完好</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.03732170709897321</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3.311997884336765</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.377382589915375</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.5198809781220499</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-1.370461710698611</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.8453361944180364</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-1.393774815329581</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0.8360738239905741</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-1.393774815329581</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.8360738239905741</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-1.344007781931149</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-1.009764211263484</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-1.32977910185434</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-0.9735661976573236</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-1.422997784767192</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-1.062593921238524</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-1.475827157056034</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.160527250201981</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-1.477420556488522</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-1.209251995458621</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-1.675144587127047</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-1.603060377775956</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-1.628804361348078</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-1.630932022245974</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-1.652402732197458</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-1.626031538262679</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>-1.5951116482582</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-1.578421672298364</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-1.719026230697441</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-1.576952835246846</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>-1.536203449164359</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-1.679921596390445</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-1.569306986470753</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-1.5060418333359</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>-1.744520076963322</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-1.627036795890284</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>-1.771648281084769</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-1.631796519507264</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>-1.738544743778375</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-1.80567628256181</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-1.7277484863085</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-1.584714064203031</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>-1.461138464145381</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-1.539684609022008</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-1.367804827153289</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-1.495635122416478</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>-1.355277086336085</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-1.62368302722256</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-1.447639253329144</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-1.694640074300332</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-1.410668718322747</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-1.681413221180895</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-1.497128391928149</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-1.668368642663298</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-1.422971931177823</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-1.647063568815279</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-1.460864975398382</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-1.630705187307005</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>-1.437692359568102</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-1.682743050389012</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-1.216691332737766</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-1.206418056032043</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>-1.170481022446956</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-1.156857576764429</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>-1.574647690636356</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-1.442946397966498</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>-1.424928446409669</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-1.372035396055552</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-1.3810286516334</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-1.324952940751319</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>-1.498162442672534</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-1.56219827558842</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-1.363335264150842</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-1.356023999316606</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-1.249056014914844</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-1.295867723358419</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>-1.321379280324678</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-1.013878247285811</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>-1.270715657855885</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-0.8560989456821936</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>-1.15932676369755</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-0.8310162650435478</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>-1.15932676369755</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-0.8310162650435478</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>-1.15932676369755</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-0.8310162650435478</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>-1.132198559576103</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-0.8262565414265679</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-1.15932676369755</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-0.8310162650435478</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-1.129859606991345</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-0.9610044828115911</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>-1.129859606991345</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.9610044828115911</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>-1.129859606991345</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.9610044828115911</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>-1.103713832601264</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-1.121219162639865</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>-1.207051559897334</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-1.299688469809715</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>-1.242434012673377</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-1.451205834021036</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>-1.214623677650428</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-1.260651488972904</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>-1.305417745437511</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-1.35514091571363</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>-1.282104640806542</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-1.364403286141093</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>-1.305417745437511</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-1.35514091571363</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>-1.271742958429736</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-1.515311888708916</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>-1.295056063060706</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-1.506049518281454</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>-1.256407584658648</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-1.627868021358776</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>轻微漏液</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>-1.402608100783852</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-1.710272357765619</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>